--- a/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
@@ -757,16 +757,16 @@
         <v>1205</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10459</v>
+        <v>11051</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0112954805692555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003512092159536194</v>
+        <v>0.003510446378037413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03047139779772377</v>
+        <v>0.03219480281786097</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>3877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9341</v>
+        <v>11767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005369191484717895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001691415236346604</v>
+        <v>0.001676097873406443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01293564298668445</v>
+        <v>0.01629619049489675</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>339363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332781</v>
+        <v>332189</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>342035</v>
@@ -826,10 +826,10 @@
         <v>0.9887045194307444</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9695286022022763</v>
+        <v>0.9678051971821398</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9964879078404639</v>
+        <v>0.9964895536219627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>349</v>
@@ -838,19 +838,19 @@
         <v>718217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>712753</v>
+        <v>710327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>720873</v>
+        <v>720884</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9946308085152821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9870643570133157</v>
+        <v>0.9837038095051018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9983085847636534</v>
+        <v>0.9983239021265936</v>
       </c>
     </row>
     <row r="6">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9221</v>
+        <v>9107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004131408513602659</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02068010765064168</v>
+        <v>0.02042449314000109</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6552</v>
+        <v>7365</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.004447990384611004</v>
+        <v>0.004447990384611005</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01357703006885899</v>
+        <v>0.01526143436543627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -984,19 +984,19 @@
         <v>3989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12570</v>
+        <v>11818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004295958855628783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001146867538658412</v>
+        <v>0.00112584883534503</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01353786275021728</v>
+        <v>0.01272757708862662</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>444051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>436672</v>
+        <v>436786</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>445893</v>
@@ -1022,7 +1022,7 @@
         <v>0.9958685914863974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9793198923493581</v>
+        <v>0.9795755068599989</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>480462</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>476057</v>
+        <v>475244</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>482609</v>
@@ -1043,7 +1043,7 @@
         <v>0.995552009615389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.986422969931141</v>
+        <v>0.9847385656345639</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>924513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>915932</v>
+        <v>916684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>927437</v>
+        <v>927457</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9957040411443713</v>
+        <v>0.9957040411443712</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9864621372497828</v>
+        <v>0.987272422911373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9988531324613416</v>
+        <v>0.9988741511646548</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>5191</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11952</v>
+        <v>13116</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.008635078313329778</v>
+        <v>0.008635078313329776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002216078023302029</v>
+        <v>0.002222422277798835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01988235232270096</v>
+        <v>0.02181847161605575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5561</v>
+        <v>4850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002526191070710085</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009156764220765454</v>
+        <v>0.00798589432366258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1201,19 +1201,19 @@
         <v>6725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2449</v>
+        <v>2473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14059</v>
+        <v>14117</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.005565069540898121</v>
+        <v>0.005565069540898119</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002026558499313516</v>
+        <v>0.002046566704441795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01163457099299191</v>
+        <v>0.01168257089063945</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>595933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>589172</v>
+        <v>588008</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599792</v>
+        <v>599788</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9913649216866701</v>
+        <v>0.99136492168667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.980117647677299</v>
+        <v>0.978181528383944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977839219766981</v>
+        <v>0.9977775777222012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>823</v>
@@ -1251,7 +1251,7 @@
         <v>605748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>601721</v>
+        <v>602432</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>607282</v>
@@ -1260,7 +1260,7 @@
         <v>0.9974738089292899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9908432357792345</v>
+        <v>0.9920141056763374</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1272,19 +1272,19 @@
         <v>1201680</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1194346</v>
+        <v>1194288</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1205956</v>
+        <v>1205932</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9944349304591019</v>
+        <v>0.9944349304591018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9883654290070082</v>
+        <v>0.9883174291093608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979734415006866</v>
+        <v>0.9979534332955581</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8916</v>
+        <v>8129</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003343118687900556</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01314516669108455</v>
+        <v>0.01198453123481064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1397,19 +1397,19 @@
         <v>5409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2600</v>
+        <v>2137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10490</v>
+        <v>10268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007493776609912297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00360214860274094</v>
+        <v>0.002961516366438037</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01453461731565826</v>
+        <v>0.01422638010639857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1418,19 +1418,19 @@
         <v>7676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3545</v>
+        <v>3931</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14063</v>
+        <v>14262</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005482865439041342</v>
+        <v>0.005482865439041343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002531800050098235</v>
+        <v>0.002807995978617012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01004436383182456</v>
+        <v>0.01018705085462535</v>
       </c>
     </row>
     <row r="14">
@@ -1447,16 +1447,16 @@
         <v>676031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>669383</v>
+        <v>670170</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>678299</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9966568813120995</v>
+        <v>0.9966568813120993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9868548333089155</v>
+        <v>0.9880154687651905</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,19 +1468,19 @@
         <v>716348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>711267</v>
+        <v>711489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>719157</v>
+        <v>719620</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9925062233900878</v>
+        <v>0.9925062233900876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.985465382684342</v>
+        <v>0.985773619893601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.996397851397259</v>
+        <v>0.997038483633562</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1748</v>
@@ -1489,19 +1489,19 @@
         <v>1392380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1385993</v>
+        <v>1385794</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1396511</v>
+        <v>1396125</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9945171345609585</v>
+        <v>0.9945171345609586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9899556361681757</v>
+        <v>0.9898129491453743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9974681999499018</v>
+        <v>0.9971920040213826</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>2635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>716</v>
+        <v>605</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6509</v>
+        <v>6050</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004422308237597206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001202351311494953</v>
+        <v>0.0010145661405983</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01092308904547659</v>
+        <v>0.01015422451785187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1627,19 +1627,19 @@
         <v>2635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6186</v>
+        <v>6776</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.002215790931709151</v>
+        <v>0.002215790931709152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0006093855819995833</v>
+        <v>0.0006008662929728402</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005201558703142115</v>
+        <v>0.005698015366227745</v>
       </c>
     </row>
     <row r="17">
@@ -1669,19 +1669,19 @@
         <v>593214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>589340</v>
+        <v>589799</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>595133</v>
+        <v>595244</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9955776917624026</v>
+        <v>0.9955776917624028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9890769109545239</v>
+        <v>0.9898457754821479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.998797648688505</v>
+        <v>0.9989854338594016</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1622</v>
@@ -1690,19 +1690,19 @@
         <v>1186569</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1183018</v>
+        <v>1182428</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1188479</v>
+        <v>1188489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9977842090682908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9947984412968577</v>
+        <v>0.9943019846337723</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9993906144180006</v>
+        <v>0.9993991337070273</v>
       </c>
     </row>
     <row r="18">
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001255978836978358</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006332684717074902</v>
+        <v>0.006324253930458667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1815,19 +1815,19 @@
         <v>3137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6997</v>
+        <v>7041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007313679298278809</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002854219590073653</v>
+        <v>0.002847653733599556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01631243206178744</v>
+        <v>0.01641552113341456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1836,19 +1836,19 @@
         <v>3637</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7425</v>
+        <v>7957</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004399075201850256</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001569831473826992</v>
+        <v>0.001579862695606103</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008981920337451635</v>
+        <v>0.009624907288309906</v>
       </c>
     </row>
     <row r="20">
@@ -1865,7 +1865,7 @@
         <v>397244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>395225</v>
+        <v>395229</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>397744</v>
@@ -1874,7 +1874,7 @@
         <v>0.9987440211630216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9936673152829253</v>
+        <v>0.9936757460695411</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1886,19 +1886,19 @@
         <v>425788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>421928</v>
+        <v>421884</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>427701</v>
+        <v>427704</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9926863207017211</v>
+        <v>0.9926863207017212</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9836875679382125</v>
+        <v>0.9835844788665854</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9971457804099265</v>
+        <v>0.9971523462664005</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1357</v>
@@ -1907,19 +1907,19 @@
         <v>823032</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>819244</v>
+        <v>818712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>825371</v>
+        <v>825363</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9956009247981497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9910180796625487</v>
+        <v>0.9903750927116908</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9984301685261731</v>
+        <v>0.9984201373043941</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5255</v>
+        <v>4787</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003157892516245693</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01737748915948518</v>
+        <v>0.0158311638496215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2032,19 +2032,19 @@
         <v>4245</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1934</v>
+        <v>1963</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8283</v>
+        <v>8340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009523030034776008</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004339257526625598</v>
+        <v>0.004403360087857446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01858116470740679</v>
+        <v>0.01870945040350701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2053,19 +2053,19 @@
         <v>5200</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2450</v>
+        <v>2511</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10051</v>
+        <v>10113</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006950338802503743</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003274366584420012</v>
+        <v>0.003355714684477954</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01343372596996488</v>
+        <v>0.01351661601812601</v>
       </c>
     </row>
     <row r="23">
@@ -2082,7 +2082,7 @@
         <v>301454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>297154</v>
+        <v>297622</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>302409</v>
@@ -2091,7 +2091,7 @@
         <v>0.9968421074837543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.982622510840514</v>
+        <v>0.9841688361503784</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2103,19 +2103,19 @@
         <v>441541</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>437503</v>
+        <v>437446</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>443852</v>
+        <v>443823</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9904769699652239</v>
+        <v>0.9904769699652241</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9814188352925932</v>
+        <v>0.9812905495964925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9956607424733743</v>
+        <v>0.9955966399121423</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1287</v>
@@ -2124,19 +2124,19 @@
         <v>742996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>738145</v>
+        <v>738083</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>745746</v>
+        <v>745685</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9930496611974963</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9865662740300354</v>
+        <v>0.986483383981874</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.99672563341558</v>
+        <v>0.9966442853155221</v>
       </c>
     </row>
     <row r="24">
@@ -2228,19 +2228,19 @@
         <v>10755</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5520</v>
+        <v>5415</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21445</v>
+        <v>20502</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.003165421777846134</v>
+        <v>0.003165421777846135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00162456209404441</v>
+        <v>0.001593632443827996</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006311647479383078</v>
+        <v>0.006034188647817207</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2249,19 +2249,19 @@
         <v>22984</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15679</v>
+        <v>15317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32565</v>
+        <v>32359</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006339570021474907</v>
+        <v>0.006339570021474908</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004324573744528856</v>
+        <v>0.004224772903958522</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008982351092309425</v>
+        <v>0.008925572661733721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -2270,19 +2270,19 @@
         <v>33739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24051</v>
+        <v>24511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47497</v>
+        <v>46340</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.004803967007297226</v>
+        <v>0.004803967007297227</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003424482217022361</v>
+        <v>0.003490097040619472</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006762913157927819</v>
+        <v>0.006598243935409579</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>3386923</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3376233</v>
+        <v>3377176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3392158</v>
+        <v>3392263</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9968345782221539</v>
+        <v>0.9968345782221538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9936883525206173</v>
+        <v>0.9939658113521828</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9983754379059556</v>
+        <v>0.9984063675561718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5185</v>
@@ -2320,19 +2320,19 @@
         <v>3602464</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3592883</v>
+        <v>3593089</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3609769</v>
+        <v>3610131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9936604299785251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9910176489076905</v>
+        <v>0.9910744273382661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9956754262554711</v>
+        <v>0.9957752270960413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8429</v>
@@ -2341,19 +2341,19 @@
         <v>6989386</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6975628</v>
+        <v>6976785</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6999074</v>
+        <v>6998614</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9951960329927029</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9932370868420721</v>
+        <v>0.9934017560645905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9965755177829775</v>
+        <v>0.9965099029593807</v>
       </c>
     </row>
     <row r="27">
